--- a/Code/Results/Cases/Case_1_169/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_169/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.012267135716266</v>
+        <v>1.040354665247028</v>
       </c>
       <c r="D2">
-        <v>1.057549004913686</v>
+        <v>1.063940348911443</v>
       </c>
       <c r="E2">
-        <v>1.01679161666625</v>
+        <v>1.038741983315371</v>
       </c>
       <c r="F2">
-        <v>1.055591775719891</v>
+        <v>1.068807601400088</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.062843581224247</v>
+        <v>1.050936796304074</v>
       </c>
       <c r="J2">
-        <v>1.034087028775112</v>
+        <v>1.045441722664561</v>
       </c>
       <c r="K2">
-        <v>1.068260846190012</v>
+        <v>1.066657630463318</v>
       </c>
       <c r="L2">
-        <v>1.028021871096377</v>
+        <v>1.041529151243364</v>
       </c>
       <c r="M2">
-        <v>1.066327374377151</v>
+        <v>1.071511794765378</v>
       </c>
       <c r="N2">
-        <v>1.01460149397181</v>
+        <v>1.018969147809317</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.017542020085583</v>
+        <v>1.041445113658833</v>
       </c>
       <c r="D3">
-        <v>1.061492017606437</v>
+        <v>1.064755127495261</v>
       </c>
       <c r="E3">
-        <v>1.021089634938098</v>
+        <v>1.039674764694412</v>
       </c>
       <c r="F3">
-        <v>1.06011743144014</v>
+        <v>1.069775293572723</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.064905251652019</v>
+        <v>1.051287187557872</v>
       </c>
       <c r="J3">
-        <v>1.037565632718558</v>
+        <v>1.046177050605059</v>
       </c>
       <c r="K3">
-        <v>1.071394208346055</v>
+        <v>1.067287518250532</v>
       </c>
       <c r="L3">
-        <v>1.03145959792349</v>
+        <v>1.042271684398492</v>
       </c>
       <c r="M3">
-        <v>1.070034816170123</v>
+        <v>1.072295159428767</v>
       </c>
       <c r="N3">
-        <v>1.015820319503943</v>
+        <v>1.019221291490035</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.020878188409786</v>
+        <v>1.042150814551124</v>
       </c>
       <c r="D4">
-        <v>1.06398882203847</v>
+        <v>1.065282326312057</v>
       </c>
       <c r="E4">
-        <v>1.023813610550364</v>
+        <v>1.040278731125987</v>
       </c>
       <c r="F4">
-        <v>1.062985344906745</v>
+        <v>1.070401787075296</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.066199218332555</v>
+        <v>1.051512665462891</v>
       </c>
       <c r="J4">
-        <v>1.039762497144828</v>
+        <v>1.046652403729566</v>
       </c>
       <c r="K4">
-        <v>1.073371749897237</v>
+        <v>1.067694426764042</v>
       </c>
       <c r="L4">
-        <v>1.033632876898342</v>
+        <v>1.042751923291369</v>
       </c>
       <c r="M4">
-        <v>1.072378680838958</v>
+        <v>1.072801757019421</v>
       </c>
       <c r="N4">
-        <v>1.016589243968835</v>
+        <v>1.019384102841043</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.022263019582706</v>
+        <v>1.042447517438207</v>
       </c>
       <c r="D5">
-        <v>1.065025868031392</v>
+        <v>1.065503955805186</v>
       </c>
       <c r="E5">
-        <v>1.02494562166997</v>
+        <v>1.040532732776218</v>
       </c>
       <c r="F5">
-        <v>1.064177070414768</v>
+        <v>1.070665243819074</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.066733896801178</v>
+        <v>1.05160715725143</v>
       </c>
       <c r="J5">
-        <v>1.040673593125772</v>
+        <v>1.046852133616438</v>
       </c>
       <c r="K5">
-        <v>1.074191543026299</v>
+        <v>1.067865329993585</v>
       </c>
       <c r="L5">
-        <v>1.034534722790437</v>
+        <v>1.042953760577163</v>
       </c>
       <c r="M5">
-        <v>1.073351309925632</v>
+        <v>1.073014660332251</v>
       </c>
       <c r="N5">
-        <v>1.016907932098037</v>
+        <v>1.019452466610427</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.02249452220161</v>
+        <v>1.042497336708838</v>
       </c>
       <c r="D6">
-        <v>1.06519926598086</v>
+        <v>1.06554116806459</v>
       </c>
       <c r="E6">
-        <v>1.025134935128109</v>
+        <v>1.040575386284494</v>
       </c>
       <c r="F6">
-        <v>1.064376363647187</v>
+        <v>1.070709483973585</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.066823134088626</v>
+        <v>1.051623005292331</v>
       </c>
       <c r="J6">
-        <v>1.040825852259003</v>
+        <v>1.046885662775081</v>
       </c>
       <c r="K6">
-        <v>1.074328522742428</v>
+        <v>1.067894015936647</v>
       </c>
       <c r="L6">
-        <v>1.034685467229081</v>
+        <v>1.042987646707496</v>
       </c>
       <c r="M6">
-        <v>1.073513884916003</v>
+        <v>1.073050403598273</v>
       </c>
       <c r="N6">
-        <v>1.016961177794735</v>
+        <v>1.019463940368525</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.020896761158125</v>
+        <v>1.04215477900602</v>
       </c>
       <c r="D7">
-        <v>1.064002728060131</v>
+        <v>1.065285287756311</v>
       </c>
       <c r="E7">
-        <v>1.023828787523182</v>
+        <v>1.040282124738826</v>
       </c>
       <c r="F7">
-        <v>1.063001322908544</v>
+        <v>1.07040530708802</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.066206398925162</v>
+        <v>1.051513929242376</v>
       </c>
       <c r="J7">
-        <v>1.039774719635872</v>
+        <v>1.04665507295676</v>
       </c>
       <c r="K7">
-        <v>1.073382748951417</v>
+        <v>1.067696711014999</v>
       </c>
       <c r="L7">
-        <v>1.033644973201594</v>
+        <v>1.042754620467929</v>
       </c>
       <c r="M7">
-        <v>1.072391726593435</v>
+        <v>1.072804602120787</v>
       </c>
       <c r="N7">
-        <v>1.016593520041206</v>
+        <v>1.019385016643927</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.014066222601047</v>
+        <v>1.040723165308154</v>
       </c>
       <c r="D8">
-        <v>1.058893151223808</v>
+        <v>1.064215710320183</v>
       </c>
       <c r="E8">
-        <v>1.018256308975276</v>
+        <v>1.039057139294304</v>
       </c>
       <c r="F8">
-        <v>1.057134098798052</v>
+        <v>1.069134568407921</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.063548808346664</v>
+        <v>1.051055471099299</v>
       </c>
       <c r="J8">
-        <v>1.03527411577391</v>
+        <v>1.045690323988888</v>
       </c>
       <c r="K8">
-        <v>1.069330367783964</v>
+        <v>1.066870642643825</v>
       </c>
       <c r="L8">
-        <v>1.029194537469262</v>
+        <v>1.041780141271349</v>
       </c>
       <c r="M8">
-        <v>1.067592014656418</v>
+        <v>1.071776596640754</v>
       </c>
       <c r="N8">
-        <v>1.015017586142299</v>
+        <v>1.019054431776733</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C9">
-        <v>1.001403959231088</v>
+        <v>1.038201286374832</v>
       </c>
       <c r="D9">
-        <v>1.049449412680551</v>
+        <v>1.062330876398452</v>
       </c>
       <c r="E9">
-        <v>1.007973987384011</v>
+        <v>1.036901592000276</v>
       </c>
       <c r="F9">
-        <v>1.046306373804687</v>
+        <v>1.066897932863454</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.058545054086552</v>
+        <v>1.050238054152035</v>
       </c>
       <c r="J9">
-        <v>1.026907237303869</v>
+        <v>1.043986844360197</v>
       </c>
       <c r="K9">
-        <v>1.061788102666205</v>
+        <v>1.065409885974595</v>
       </c>
       <c r="L9">
-        <v>1.020939003543004</v>
+        <v>1.040061231471274</v>
       </c>
       <c r="M9">
-        <v>1.058690323085778</v>
+        <v>1.069962905920067</v>
       </c>
       <c r="N9">
-        <v>1.012081864832848</v>
+        <v>1.018469281906253</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9924872684961518</v>
+        <v>1.036520547662603</v>
       </c>
       <c r="D10">
-        <v>1.042824837665877</v>
+        <v>1.061074292617718</v>
       </c>
       <c r="E10">
-        <v>1.000769739476204</v>
+        <v>1.035466614015469</v>
       </c>
       <c r="F10">
-        <v>1.038720644010863</v>
+        <v>1.065408602061996</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.054972742161444</v>
+        <v>1.049686694878113</v>
       </c>
       <c r="J10">
-        <v>1.02100216156708</v>
+        <v>1.042848860092088</v>
       </c>
       <c r="K10">
-        <v>1.056461654447161</v>
+        <v>1.064432632496464</v>
       </c>
       <c r="L10">
-        <v>1.015125109933084</v>
+        <v>1.038914119398189</v>
       </c>
       <c r="M10">
-        <v>1.052424291279637</v>
+        <v>1.068752316064401</v>
       </c>
       <c r="N10">
-        <v>1.010006608467747</v>
+        <v>1.018077429497981</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.988500122185733</v>
+        <v>1.035792883846964</v>
       </c>
       <c r="D11">
-        <v>1.039870281967859</v>
+        <v>1.060530179330679</v>
       </c>
       <c r="E11">
-        <v>0.9975579784795388</v>
+        <v>1.034845741935686</v>
       </c>
       <c r="F11">
-        <v>1.035339386194154</v>
+        <v>1.064764128897806</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.05336467847409</v>
+        <v>1.049446430350058</v>
       </c>
       <c r="J11">
-        <v>1.018359260442758</v>
+        <v>1.042355546842398</v>
       </c>
       <c r="K11">
-        <v>1.054077534550472</v>
+        <v>1.064008665654524</v>
       </c>
       <c r="L11">
-        <v>1.012526095158737</v>
+        <v>1.038417129798814</v>
       </c>
       <c r="M11">
-        <v>1.049624269104457</v>
+        <v>1.068227775094442</v>
       </c>
       <c r="N11">
-        <v>1.009077179176584</v>
+        <v>1.017907338655451</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9869989081885322</v>
+        <v>1.035522612468815</v>
       </c>
       <c r="D12">
-        <v>1.038759146702291</v>
+        <v>1.060328071364518</v>
       </c>
       <c r="E12">
-        <v>0.9963502495124705</v>
+        <v>1.034615195026577</v>
       </c>
       <c r="F12">
-        <v>1.034068045994873</v>
+        <v>1.064524805915517</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.052757694842666</v>
+        <v>1.049356956753864</v>
       </c>
       <c r="J12">
-        <v>1.017363874713596</v>
+        <v>1.042172224274353</v>
       </c>
       <c r="K12">
-        <v>1.053179639050022</v>
+        <v>1.063851064167723</v>
       </c>
       <c r="L12">
-        <v>1.011547708623868</v>
+        <v>1.038232483249708</v>
       </c>
       <c r="M12">
-        <v>1.048570420836618</v>
+        <v>1.068032885300228</v>
       </c>
       <c r="N12">
-        <v>1.008727053713041</v>
+        <v>1.01784409688492</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9873218595978005</v>
+        <v>1.035580585913463</v>
       </c>
       <c r="D13">
-        <v>1.038998120825008</v>
+        <v>1.060371424203142</v>
       </c>
       <c r="E13">
-        <v>0.9966099932353291</v>
+        <v>1.034664644833406</v>
       </c>
       <c r="F13">
-        <v>1.034341464133143</v>
+        <v>1.064576138648052</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.052888340913869</v>
+        <v>1.049376159490022</v>
       </c>
       <c r="J13">
-        <v>1.017578021269675</v>
+        <v>1.042211551393832</v>
       </c>
       <c r="K13">
-        <v>1.0533728095088</v>
+        <v>1.063884875706783</v>
       </c>
       <c r="L13">
-        <v>1.011758176597097</v>
+        <v>1.038272092484395</v>
       </c>
       <c r="M13">
-        <v>1.04879711195308</v>
+        <v>1.068074692167516</v>
       </c>
       <c r="N13">
-        <v>1.008802382729964</v>
+        <v>1.017857665284691</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9883764512977518</v>
+        <v>1.03577054282138</v>
       </c>
       <c r="D14">
-        <v>1.039778718835112</v>
+        <v>1.060513473021182</v>
       </c>
       <c r="E14">
-        <v>0.9974584531889966</v>
+        <v>1.034826683374241</v>
       </c>
       <c r="F14">
-        <v>1.035234616113493</v>
+        <v>1.064744345096932</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.053314705333209</v>
+        <v>1.049439039098782</v>
       </c>
       <c r="J14">
-        <v>1.018277265650483</v>
+        <v>1.04234039505742</v>
       </c>
       <c r="K14">
-        <v>1.05400356963685</v>
+        <v>1.063995640739627</v>
       </c>
       <c r="L14">
-        <v>1.012445491067764</v>
+        <v>1.038401867724343</v>
       </c>
       <c r="M14">
-        <v>1.049537443689</v>
+        <v>1.06821166650075</v>
       </c>
       <c r="N14">
-        <v>1.009048339127272</v>
+        <v>1.01790211234472</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.989023502595429</v>
+        <v>1.035887583555473</v>
       </c>
       <c r="D15">
-        <v>1.040257834610278</v>
+        <v>1.060600993994599</v>
       </c>
       <c r="E15">
-        <v>0.9979792370689333</v>
+        <v>1.034926530293263</v>
       </c>
       <c r="F15">
-        <v>1.035782849638602</v>
+        <v>1.064847991008118</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.053576105238308</v>
+        <v>1.049477751004127</v>
       </c>
       <c r="J15">
-        <v>1.018706254115049</v>
+        <v>1.042419768747516</v>
       </c>
       <c r="K15">
-        <v>1.054390548002936</v>
+        <v>1.064063870664785</v>
       </c>
       <c r="L15">
-        <v>1.012867222733551</v>
+        <v>1.038481820902138</v>
       </c>
       <c r="M15">
-        <v>1.04999173483115</v>
+        <v>1.06829605403677</v>
       </c>
       <c r="N15">
-        <v>1.009199224260341</v>
+        <v>1.01792948937098</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9927491193979346</v>
+        <v>1.036568842508075</v>
       </c>
       <c r="D16">
-        <v>1.04301904565919</v>
+        <v>1.061110403584325</v>
       </c>
       <c r="E16">
-        <v>1.000980876310478</v>
+        <v>1.035507829430824</v>
       </c>
       <c r="F16">
-        <v>1.038942938503129</v>
+        <v>1.065451382442134</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.055078134086858</v>
+        <v>1.049702608374957</v>
       </c>
       <c r="J16">
-        <v>1.021175685971327</v>
+        <v>1.042881587887217</v>
       </c>
       <c r="K16">
-        <v>1.05661818869389</v>
+        <v>1.064460752748168</v>
       </c>
       <c r="L16">
-        <v>1.015295817544803</v>
+        <v>1.038947097005608</v>
       </c>
       <c r="M16">
-        <v>1.052608227802358</v>
+        <v>1.068787120823353</v>
       </c>
       <c r="N16">
-        <v>1.010067620189782</v>
+        <v>1.018088709104513</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9950514697246868</v>
+        <v>1.036996206415244</v>
       </c>
       <c r="D17">
-        <v>1.044727525225307</v>
+        <v>1.06142994203462</v>
       </c>
       <c r="E17">
-        <v>1.002838425349811</v>
+        <v>1.035872592354389</v>
       </c>
       <c r="F17">
-        <v>1.040898720518985</v>
+        <v>1.065829985854265</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.056003598738929</v>
+        <v>1.049843247935164</v>
       </c>
       <c r="J17">
-        <v>1.0227011499039</v>
+        <v>1.043171125188716</v>
       </c>
       <c r="K17">
-        <v>1.057994275645392</v>
+        <v>1.064709489852801</v>
       </c>
       <c r="L17">
-        <v>1.016796869052625</v>
+        <v>1.039238876750139</v>
       </c>
       <c r="M17">
-        <v>1.054225733644849</v>
+        <v>1.069095061198717</v>
       </c>
       <c r="N17">
-        <v>1.010603909599917</v>
+        <v>1.018188472064164</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9963823093711012</v>
+        <v>1.037245490938189</v>
       </c>
       <c r="D18">
-        <v>1.04571580158478</v>
+        <v>1.061616322961514</v>
       </c>
       <c r="E18">
-        <v>1.00391306190429</v>
+        <v>1.036085398979608</v>
       </c>
       <c r="F18">
-        <v>1.042030238847644</v>
+        <v>1.066050859016454</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.056537533191341</v>
+        <v>1.049925133724958</v>
       </c>
       <c r="J18">
-        <v>1.023582688842382</v>
+        <v>1.043339953515662</v>
       </c>
       <c r="K18">
-        <v>1.058789470293686</v>
+        <v>1.064854495858356</v>
       </c>
       <c r="L18">
-        <v>1.017664590928988</v>
+        <v>1.039409039683938</v>
       </c>
       <c r="M18">
-        <v>1.055160877746002</v>
+        <v>1.069274644054054</v>
       </c>
       <c r="N18">
-        <v>1.010913762354073</v>
+        <v>1.018246621952473</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9968340783501837</v>
+        <v>1.037330492302501</v>
       </c>
       <c r="D19">
-        <v>1.046051400625961</v>
+        <v>1.06167987394825</v>
       </c>
       <c r="E19">
-        <v>1.004278011130317</v>
+        <v>1.036157968438224</v>
       </c>
       <c r="F19">
-        <v>1.042414512912949</v>
+        <v>1.066126177862525</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.056718608701327</v>
+        <v>1.049953029746921</v>
       </c>
       <c r="J19">
-        <v>1.02388189609656</v>
+        <v>1.043397510477306</v>
       </c>
       <c r="K19">
-        <v>1.059059365722071</v>
+        <v>1.064903925895615</v>
       </c>
       <c r="L19">
-        <v>1.017959157504625</v>
+        <v>1.039467056225349</v>
       </c>
       <c r="M19">
-        <v>1.055478348539857</v>
+        <v>1.069335871466244</v>
       </c>
       <c r="N19">
-        <v>1.011018920397467</v>
+        <v>1.01826644274814</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9948057077966657</v>
+        <v>1.036950353243377</v>
       </c>
       <c r="D20">
-        <v>1.044545080197937</v>
+        <v>1.061395658624828</v>
       </c>
       <c r="E20">
-        <v>1.002640048413887</v>
+        <v>1.035833451925762</v>
       </c>
       <c r="F20">
-        <v>1.040689847166351</v>
+        <v>1.065789361130345</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.055904915988347</v>
+        <v>1.049828173834003</v>
       </c>
       <c r="J20">
-        <v>1.022538339620985</v>
+        <v>1.043140066150687</v>
       </c>
       <c r="K20">
-        <v>1.057847410021694</v>
+        <v>1.064682810795468</v>
       </c>
       <c r="L20">
-        <v>1.016636634061181</v>
+        <v>1.039207574364206</v>
       </c>
       <c r="M20">
-        <v>1.054053056393196</v>
+        <v>1.069062025579353</v>
       </c>
       <c r="N20">
-        <v>1.010546678378785</v>
+        <v>1.018177772595987</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9880664688597067</v>
+        <v>1.035714604828355</v>
       </c>
       <c r="D21">
-        <v>1.039549236188201</v>
+        <v>1.060471643181968</v>
       </c>
       <c r="E21">
-        <v>0.9972090171061645</v>
+        <v>1.034778965057185</v>
       </c>
       <c r="F21">
-        <v>1.034972037387383</v>
+        <v>1.064694810746491</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.053189422813491</v>
+        <v>1.049420528932685</v>
       </c>
       <c r="J21">
-        <v>1.018071740232386</v>
+        <v>1.042302456131535</v>
       </c>
       <c r="K21">
-        <v>1.053818172265742</v>
+        <v>1.06396302654483</v>
       </c>
       <c r="L21">
-        <v>1.012243459138865</v>
+        <v>1.038363653323813</v>
       </c>
       <c r="M21">
-        <v>1.04931982164603</v>
+        <v>1.068171332404552</v>
       </c>
       <c r="N21">
-        <v>1.008976048413921</v>
+        <v>1.017889025516982</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.983711608271537</v>
+        <v>1.03493772927355</v>
       </c>
       <c r="D22">
-        <v>1.036328575975235</v>
+        <v>1.059890677905143</v>
       </c>
       <c r="E22">
-        <v>0.9937085558322988</v>
+        <v>1.034116387541168</v>
       </c>
       <c r="F22">
-        <v>1.031287490306422</v>
+        <v>1.064006988446064</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.051425829115731</v>
+        <v>1.049162903520314</v>
       </c>
       <c r="J22">
-        <v>1.015183744501726</v>
+        <v>1.041775331037909</v>
       </c>
       <c r="K22">
-        <v>1.051213148512611</v>
+        <v>1.063509767827179</v>
       </c>
       <c r="L22">
-        <v>1.009405686320597</v>
+        <v>1.037832800855363</v>
       </c>
       <c r="M22">
-        <v>1.046263612972244</v>
+        <v>1.067611017991525</v>
       </c>
       <c r="N22">
-        <v>1.007960069347012</v>
+        <v>1.017707117436309</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9860318008057161</v>
+        <v>1.035349557557623</v>
       </c>
       <c r="D23">
-        <v>1.038043718274066</v>
+        <v>1.06019865840997</v>
       </c>
       <c r="E23">
-        <v>0.9955726566501066</v>
+        <v>1.034467592558305</v>
       </c>
       <c r="F23">
-        <v>1.033249537672002</v>
+        <v>1.064371581329526</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.052366246013797</v>
+        <v>1.04929960099977</v>
       </c>
       <c r="J23">
-        <v>1.016722554896072</v>
+        <v>1.042054816179979</v>
       </c>
       <c r="K23">
-        <v>1.052601146166093</v>
+        <v>1.063750115266187</v>
       </c>
       <c r="L23">
-        <v>1.010917474939951</v>
+        <v>1.038114239106698</v>
       </c>
       <c r="M23">
-        <v>1.047891641371939</v>
+        <v>1.067908079625915</v>
       </c>
       <c r="N23">
-        <v>1.008501450318215</v>
+        <v>1.017803584579756</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9949167942787968</v>
+        <v>1.036971072285649</v>
       </c>
       <c r="D24">
-        <v>1.044627544695317</v>
+        <v>1.061411149823357</v>
       </c>
       <c r="E24">
-        <v>1.002729713667486</v>
+        <v>1.035851137656636</v>
       </c>
       <c r="F24">
-        <v>1.04078425658373</v>
+        <v>1.065807717570153</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.055949524591012</v>
+        <v>1.049834985625248</v>
       </c>
       <c r="J24">
-        <v>1.02261193198146</v>
+        <v>1.043154100559398</v>
       </c>
       <c r="K24">
-        <v>1.057913795261525</v>
+        <v>1.064694866154477</v>
       </c>
       <c r="L24">
-        <v>1.016709061456009</v>
+        <v>1.039221718649107</v>
       </c>
       <c r="M24">
-        <v>1.054131107465309</v>
+        <v>1.069076953057357</v>
       </c>
       <c r="N24">
-        <v>1.010572547819136</v>
+        <v>1.018182607349155</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.004756974894874</v>
+        <v>1.038853159843231</v>
       </c>
       <c r="D25">
-        <v>1.051946231887926</v>
+        <v>1.062818159019021</v>
       </c>
       <c r="E25">
-        <v>1.010690823619679</v>
+        <v>1.037458491714048</v>
       </c>
       <c r="F25">
-        <v>1.049167335219799</v>
+        <v>1.067475849021882</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.059878703103512</v>
+        <v>1.050450507363125</v>
       </c>
       <c r="J25">
-        <v>1.029125301581029</v>
+        <v>1.044427645636857</v>
       </c>
       <c r="K25">
-        <v>1.063788325367679</v>
+        <v>1.065788130513794</v>
       </c>
       <c r="L25">
-        <v>1.023125414633786</v>
+        <v>1.040505817935361</v>
       </c>
       <c r="M25">
-        <v>1.061047493661484</v>
+        <v>1.070432048134732</v>
       </c>
       <c r="N25">
-        <v>1.012860749027929</v>
+        <v>1.018620866583206</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_169/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_169/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>1.040354665247028</v>
+        <v>1.012267135716266</v>
       </c>
       <c r="D2">
-        <v>1.063940348911443</v>
+        <v>1.057549004913687</v>
       </c>
       <c r="E2">
-        <v>1.038741983315371</v>
+        <v>1.01679161666625</v>
       </c>
       <c r="F2">
-        <v>1.068807601400088</v>
+        <v>1.055591775719892</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050936796304074</v>
+        <v>1.062843581224247</v>
       </c>
       <c r="J2">
-        <v>1.045441722664561</v>
+        <v>1.034087028775112</v>
       </c>
       <c r="K2">
-        <v>1.066657630463318</v>
+        <v>1.068260846190013</v>
       </c>
       <c r="L2">
-        <v>1.041529151243364</v>
+        <v>1.028021871096377</v>
       </c>
       <c r="M2">
-        <v>1.071511794765378</v>
+        <v>1.066327374377151</v>
       </c>
       <c r="N2">
-        <v>1.018969147809317</v>
+        <v>1.01460149397181</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.041445113658833</v>
+        <v>1.017542020085582</v>
       </c>
       <c r="D3">
-        <v>1.064755127495261</v>
+        <v>1.061492017606436</v>
       </c>
       <c r="E3">
-        <v>1.039674764694412</v>
+        <v>1.021089634938097</v>
       </c>
       <c r="F3">
-        <v>1.069775293572723</v>
+        <v>1.06011743144014</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051287187557872</v>
+        <v>1.064905251652018</v>
       </c>
       <c r="J3">
-        <v>1.046177050605059</v>
+        <v>1.037565632718557</v>
       </c>
       <c r="K3">
-        <v>1.067287518250532</v>
+        <v>1.071394208346054</v>
       </c>
       <c r="L3">
-        <v>1.042271684398492</v>
+        <v>1.031459597923489</v>
       </c>
       <c r="M3">
-        <v>1.072295159428767</v>
+        <v>1.070034816170122</v>
       </c>
       <c r="N3">
-        <v>1.019221291490035</v>
+        <v>1.015820319503943</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.042150814551124</v>
+        <v>1.020878188409787</v>
       </c>
       <c r="D4">
-        <v>1.065282326312057</v>
+        <v>1.06398882203847</v>
       </c>
       <c r="E4">
-        <v>1.040278731125987</v>
+        <v>1.023813610550364</v>
       </c>
       <c r="F4">
-        <v>1.070401787075296</v>
+        <v>1.062985344906746</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051512665462891</v>
+        <v>1.066199218332556</v>
       </c>
       <c r="J4">
-        <v>1.046652403729566</v>
+        <v>1.039762497144828</v>
       </c>
       <c r="K4">
-        <v>1.067694426764042</v>
+        <v>1.073371749897238</v>
       </c>
       <c r="L4">
-        <v>1.042751923291369</v>
+        <v>1.033632876898342</v>
       </c>
       <c r="M4">
-        <v>1.072801757019421</v>
+        <v>1.072378680838959</v>
       </c>
       <c r="N4">
-        <v>1.019384102841043</v>
+        <v>1.016589243968835</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.042447517438207</v>
+        <v>1.022263019582706</v>
       </c>
       <c r="D5">
-        <v>1.065503955805186</v>
+        <v>1.065025868031393</v>
       </c>
       <c r="E5">
-        <v>1.040532732776218</v>
+        <v>1.02494562166997</v>
       </c>
       <c r="F5">
-        <v>1.070665243819074</v>
+        <v>1.064177070414768</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05160715725143</v>
+        <v>1.066733896801179</v>
       </c>
       <c r="J5">
-        <v>1.046852133616438</v>
+        <v>1.040673593125772</v>
       </c>
       <c r="K5">
-        <v>1.067865329993585</v>
+        <v>1.0741915430263</v>
       </c>
       <c r="L5">
-        <v>1.042953760577163</v>
+        <v>1.034534722790437</v>
       </c>
       <c r="M5">
-        <v>1.073014660332251</v>
+        <v>1.073351309925633</v>
       </c>
       <c r="N5">
-        <v>1.019452466610427</v>
+        <v>1.016907932098037</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.042497336708838</v>
+        <v>1.02249452220161</v>
       </c>
       <c r="D6">
-        <v>1.06554116806459</v>
+        <v>1.06519926598086</v>
       </c>
       <c r="E6">
-        <v>1.040575386284494</v>
+        <v>1.025134935128109</v>
       </c>
       <c r="F6">
-        <v>1.070709483973585</v>
+        <v>1.064376363647188</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051623005292331</v>
+        <v>1.066823134088626</v>
       </c>
       <c r="J6">
-        <v>1.046885662775081</v>
+        <v>1.040825852259003</v>
       </c>
       <c r="K6">
-        <v>1.067894015936647</v>
+        <v>1.074328522742428</v>
       </c>
       <c r="L6">
-        <v>1.042987646707496</v>
+        <v>1.03468546722908</v>
       </c>
       <c r="M6">
-        <v>1.073050403598273</v>
+        <v>1.073513884916003</v>
       </c>
       <c r="N6">
-        <v>1.019463940368525</v>
+        <v>1.016961177794735</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.04215477900602</v>
+        <v>1.020896761158125</v>
       </c>
       <c r="D7">
-        <v>1.065285287756311</v>
+        <v>1.064002728060131</v>
       </c>
       <c r="E7">
-        <v>1.040282124738826</v>
+        <v>1.023828787523182</v>
       </c>
       <c r="F7">
-        <v>1.07040530708802</v>
+        <v>1.063001322908544</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051513929242376</v>
+        <v>1.066206398925162</v>
       </c>
       <c r="J7">
-        <v>1.04665507295676</v>
+        <v>1.039774719635873</v>
       </c>
       <c r="K7">
-        <v>1.067696711014999</v>
+        <v>1.073382748951417</v>
       </c>
       <c r="L7">
-        <v>1.042754620467929</v>
+        <v>1.033644973201594</v>
       </c>
       <c r="M7">
-        <v>1.072804602120787</v>
+        <v>1.072391726593435</v>
       </c>
       <c r="N7">
-        <v>1.019385016643927</v>
+        <v>1.016593520041206</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.040723165308154</v>
+        <v>1.014066222601047</v>
       </c>
       <c r="D8">
-        <v>1.064215710320183</v>
+        <v>1.058893151223808</v>
       </c>
       <c r="E8">
-        <v>1.039057139294304</v>
+        <v>1.018256308975276</v>
       </c>
       <c r="F8">
-        <v>1.069134568407921</v>
+        <v>1.057134098798053</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051055471099299</v>
+        <v>1.063548808346664</v>
       </c>
       <c r="J8">
-        <v>1.045690323988888</v>
+        <v>1.03527411577391</v>
       </c>
       <c r="K8">
-        <v>1.066870642643825</v>
+        <v>1.069330367783964</v>
       </c>
       <c r="L8">
-        <v>1.041780141271349</v>
+        <v>1.029194537469262</v>
       </c>
       <c r="M8">
-        <v>1.071776596640754</v>
+        <v>1.067592014656418</v>
       </c>
       <c r="N8">
-        <v>1.019054431776733</v>
+        <v>1.015017586142299</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.038201286374832</v>
+        <v>1.001403959231088</v>
       </c>
       <c r="D9">
-        <v>1.062330876398452</v>
+        <v>1.049449412680552</v>
       </c>
       <c r="E9">
-        <v>1.036901592000276</v>
+        <v>1.007973987384011</v>
       </c>
       <c r="F9">
-        <v>1.066897932863454</v>
+        <v>1.046306373804687</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.050238054152035</v>
+        <v>1.058545054086553</v>
       </c>
       <c r="J9">
-        <v>1.043986844360197</v>
+        <v>1.026907237303869</v>
       </c>
       <c r="K9">
-        <v>1.065409885974595</v>
+        <v>1.061788102666205</v>
       </c>
       <c r="L9">
-        <v>1.040061231471274</v>
+        <v>1.020939003543004</v>
       </c>
       <c r="M9">
-        <v>1.069962905920067</v>
+        <v>1.058690323085778</v>
       </c>
       <c r="N9">
-        <v>1.018469281906253</v>
+        <v>1.012081864832848</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.036520547662603</v>
+        <v>0.9924872684961525</v>
       </c>
       <c r="D10">
-        <v>1.061074292617718</v>
+        <v>1.042824837665878</v>
       </c>
       <c r="E10">
-        <v>1.035466614015469</v>
+        <v>1.000769739476205</v>
       </c>
       <c r="F10">
-        <v>1.065408602061996</v>
+        <v>1.038720644010865</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.049686694878113</v>
+        <v>1.054972742161445</v>
       </c>
       <c r="J10">
-        <v>1.042848860092088</v>
+        <v>1.021002161567081</v>
       </c>
       <c r="K10">
-        <v>1.064432632496464</v>
+        <v>1.056461654447162</v>
       </c>
       <c r="L10">
-        <v>1.038914119398189</v>
+        <v>1.015125109933084</v>
       </c>
       <c r="M10">
-        <v>1.068752316064401</v>
+        <v>1.052424291279638</v>
       </c>
       <c r="N10">
-        <v>1.018077429497981</v>
+        <v>1.010006608467747</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.035792883846964</v>
+        <v>0.9885001221857322</v>
       </c>
       <c r="D11">
-        <v>1.060530179330679</v>
+        <v>1.039870281967858</v>
       </c>
       <c r="E11">
-        <v>1.034845741935686</v>
+        <v>0.9975579784795381</v>
       </c>
       <c r="F11">
-        <v>1.064764128897806</v>
+        <v>1.035339386194153</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.049446430350058</v>
+        <v>1.053364678474089</v>
       </c>
       <c r="J11">
-        <v>1.042355546842398</v>
+        <v>1.018359260442757</v>
       </c>
       <c r="K11">
-        <v>1.064008665654524</v>
+        <v>1.054077534550472</v>
       </c>
       <c r="L11">
-        <v>1.038417129798814</v>
+        <v>1.012526095158737</v>
       </c>
       <c r="M11">
-        <v>1.068227775094442</v>
+        <v>1.049624269104456</v>
       </c>
       <c r="N11">
-        <v>1.017907338655451</v>
+        <v>1.009077179176583</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.035522612468815</v>
+        <v>0.9869989081885332</v>
       </c>
       <c r="D12">
-        <v>1.060328071364518</v>
+        <v>1.038759146702291</v>
       </c>
       <c r="E12">
-        <v>1.034615195026577</v>
+        <v>0.9963502495124711</v>
       </c>
       <c r="F12">
-        <v>1.064524805915517</v>
+        <v>1.034068045994874</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.049356956753864</v>
+        <v>1.052757694842667</v>
       </c>
       <c r="J12">
-        <v>1.042172224274353</v>
+        <v>1.017363874713596</v>
       </c>
       <c r="K12">
-        <v>1.063851064167723</v>
+        <v>1.053179639050022</v>
       </c>
       <c r="L12">
-        <v>1.038232483249708</v>
+        <v>1.011547708623868</v>
       </c>
       <c r="M12">
-        <v>1.068032885300228</v>
+        <v>1.048570420836619</v>
       </c>
       <c r="N12">
-        <v>1.01784409688492</v>
+        <v>1.008727053713041</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.035580585913463</v>
+        <v>0.9873218595977996</v>
       </c>
       <c r="D13">
-        <v>1.060371424203142</v>
+        <v>1.038998120825007</v>
       </c>
       <c r="E13">
-        <v>1.034664644833406</v>
+        <v>0.9966099932353283</v>
       </c>
       <c r="F13">
-        <v>1.064576138648052</v>
+        <v>1.034341464133143</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.049376159490022</v>
+        <v>1.052888340913868</v>
       </c>
       <c r="J13">
-        <v>1.042211551393832</v>
+        <v>1.017578021269674</v>
       </c>
       <c r="K13">
-        <v>1.063884875706783</v>
+        <v>1.0533728095088</v>
       </c>
       <c r="L13">
-        <v>1.038272092484395</v>
+        <v>1.011758176597096</v>
       </c>
       <c r="M13">
-        <v>1.068074692167516</v>
+        <v>1.04879711195308</v>
       </c>
       <c r="N13">
-        <v>1.017857665284691</v>
+        <v>1.008802382729963</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.03577054282138</v>
+        <v>0.9883764512977515</v>
       </c>
       <c r="D14">
-        <v>1.060513473021182</v>
+        <v>1.039778718835112</v>
       </c>
       <c r="E14">
-        <v>1.034826683374241</v>
+        <v>0.9974584531889965</v>
       </c>
       <c r="F14">
-        <v>1.064744345096932</v>
+        <v>1.035234616113493</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.049439039098782</v>
+        <v>1.053314705333209</v>
       </c>
       <c r="J14">
-        <v>1.04234039505742</v>
+        <v>1.018277265650483</v>
       </c>
       <c r="K14">
-        <v>1.063995640739627</v>
+        <v>1.05400356963685</v>
       </c>
       <c r="L14">
-        <v>1.038401867724343</v>
+        <v>1.012445491067764</v>
       </c>
       <c r="M14">
-        <v>1.06821166650075</v>
+        <v>1.049537443689</v>
       </c>
       <c r="N14">
-        <v>1.01790211234472</v>
+        <v>1.009048339127272</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.035887583555473</v>
+        <v>0.9890235025954294</v>
       </c>
       <c r="D15">
-        <v>1.060600993994599</v>
+        <v>1.040257834610278</v>
       </c>
       <c r="E15">
-        <v>1.034926530293263</v>
+        <v>0.9979792370689335</v>
       </c>
       <c r="F15">
-        <v>1.064847991008118</v>
+        <v>1.035782849638602</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.049477751004127</v>
+        <v>1.053576105238309</v>
       </c>
       <c r="J15">
-        <v>1.042419768747516</v>
+        <v>1.018706254115049</v>
       </c>
       <c r="K15">
-        <v>1.064063870664785</v>
+        <v>1.054390548002937</v>
       </c>
       <c r="L15">
-        <v>1.038481820902138</v>
+        <v>1.012867222733552</v>
       </c>
       <c r="M15">
-        <v>1.06829605403677</v>
+        <v>1.04999173483115</v>
       </c>
       <c r="N15">
-        <v>1.01792948937098</v>
+        <v>1.009199224260342</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.036568842508075</v>
+        <v>0.9927491193979346</v>
       </c>
       <c r="D16">
-        <v>1.061110403584325</v>
+        <v>1.04301904565919</v>
       </c>
       <c r="E16">
-        <v>1.035507829430824</v>
+        <v>1.000980876310478</v>
       </c>
       <c r="F16">
-        <v>1.065451382442134</v>
+        <v>1.03894293850313</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049702608374957</v>
+        <v>1.055078134086858</v>
       </c>
       <c r="J16">
-        <v>1.042881587887217</v>
+        <v>1.021175685971327</v>
       </c>
       <c r="K16">
-        <v>1.064460752748168</v>
+        <v>1.056618188693891</v>
       </c>
       <c r="L16">
-        <v>1.038947097005608</v>
+        <v>1.015295817544803</v>
       </c>
       <c r="M16">
-        <v>1.068787120823353</v>
+        <v>1.052608227802357</v>
       </c>
       <c r="N16">
-        <v>1.018088709104513</v>
+        <v>1.010067620189782</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.036996206415244</v>
+        <v>0.9950514697246864</v>
       </c>
       <c r="D17">
-        <v>1.06142994203462</v>
+        <v>1.044727525225307</v>
       </c>
       <c r="E17">
-        <v>1.035872592354389</v>
+        <v>1.002838425349811</v>
       </c>
       <c r="F17">
-        <v>1.065829985854265</v>
+        <v>1.040898720518985</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.049843247935164</v>
+        <v>1.056003598738928</v>
       </c>
       <c r="J17">
-        <v>1.043171125188716</v>
+        <v>1.0227011499039</v>
       </c>
       <c r="K17">
-        <v>1.064709489852801</v>
+        <v>1.057994275645392</v>
       </c>
       <c r="L17">
-        <v>1.039238876750139</v>
+        <v>1.016796869052625</v>
       </c>
       <c r="M17">
-        <v>1.069095061198717</v>
+        <v>1.054225733644848</v>
       </c>
       <c r="N17">
-        <v>1.018188472064164</v>
+        <v>1.010603909599917</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.037245490938189</v>
+        <v>0.9963823093711012</v>
       </c>
       <c r="D18">
-        <v>1.061616322961514</v>
+        <v>1.04571580158478</v>
       </c>
       <c r="E18">
-        <v>1.036085398979608</v>
+        <v>1.00391306190429</v>
       </c>
       <c r="F18">
-        <v>1.066050859016454</v>
+        <v>1.042030238847644</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.049925133724958</v>
+        <v>1.056537533191341</v>
       </c>
       <c r="J18">
-        <v>1.043339953515662</v>
+        <v>1.023582688842382</v>
       </c>
       <c r="K18">
-        <v>1.064854495858356</v>
+        <v>1.058789470293686</v>
       </c>
       <c r="L18">
-        <v>1.039409039683938</v>
+        <v>1.017664590928988</v>
       </c>
       <c r="M18">
-        <v>1.069274644054054</v>
+        <v>1.055160877746002</v>
       </c>
       <c r="N18">
-        <v>1.018246621952473</v>
+        <v>1.010913762354073</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.037330492302501</v>
+        <v>0.996834078350183</v>
       </c>
       <c r="D19">
-        <v>1.06167987394825</v>
+        <v>1.046051400625961</v>
       </c>
       <c r="E19">
-        <v>1.036157968438224</v>
+        <v>1.004278011130317</v>
       </c>
       <c r="F19">
-        <v>1.066126177862525</v>
+        <v>1.042414512912948</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.049953029746921</v>
+        <v>1.056718608701327</v>
       </c>
       <c r="J19">
-        <v>1.043397510477306</v>
+        <v>1.02388189609656</v>
       </c>
       <c r="K19">
-        <v>1.064903925895615</v>
+        <v>1.059059365722071</v>
       </c>
       <c r="L19">
-        <v>1.039467056225349</v>
+        <v>1.017959157504624</v>
       </c>
       <c r="M19">
-        <v>1.069335871466244</v>
+        <v>1.055478348539856</v>
       </c>
       <c r="N19">
-        <v>1.01826644274814</v>
+        <v>1.011018920397467</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.036950353243377</v>
+        <v>0.994805707796666</v>
       </c>
       <c r="D20">
-        <v>1.061395658624828</v>
+        <v>1.044545080197936</v>
       </c>
       <c r="E20">
-        <v>1.035833451925762</v>
+        <v>1.002640048413888</v>
       </c>
       <c r="F20">
-        <v>1.065789361130345</v>
+        <v>1.04068984716635</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.049828173834003</v>
+        <v>1.055904915988347</v>
       </c>
       <c r="J20">
-        <v>1.043140066150687</v>
+        <v>1.022538339620985</v>
       </c>
       <c r="K20">
-        <v>1.064682810795468</v>
+        <v>1.057847410021694</v>
       </c>
       <c r="L20">
-        <v>1.039207574364206</v>
+        <v>1.016636634061181</v>
       </c>
       <c r="M20">
-        <v>1.069062025579353</v>
+        <v>1.054053056393196</v>
       </c>
       <c r="N20">
-        <v>1.018177772595987</v>
+        <v>1.010546678378785</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.035714604828355</v>
+        <v>0.9880664688597064</v>
       </c>
       <c r="D21">
-        <v>1.060471643181968</v>
+        <v>1.039549236188201</v>
       </c>
       <c r="E21">
-        <v>1.034778965057185</v>
+        <v>0.9972090171061643</v>
       </c>
       <c r="F21">
-        <v>1.064694810746491</v>
+        <v>1.034972037387383</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.049420528932685</v>
+        <v>1.053189422813491</v>
       </c>
       <c r="J21">
-        <v>1.042302456131535</v>
+        <v>1.018071740232385</v>
       </c>
       <c r="K21">
-        <v>1.06396302654483</v>
+        <v>1.053818172265742</v>
       </c>
       <c r="L21">
-        <v>1.038363653323813</v>
+        <v>1.012243459138864</v>
       </c>
       <c r="M21">
-        <v>1.068171332404552</v>
+        <v>1.04931982164603</v>
       </c>
       <c r="N21">
-        <v>1.017889025516982</v>
+        <v>1.008976048413921</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.03493772927355</v>
+        <v>0.9837116082715365</v>
       </c>
       <c r="D22">
-        <v>1.059890677905143</v>
+        <v>1.036328575975235</v>
       </c>
       <c r="E22">
-        <v>1.034116387541168</v>
+        <v>0.993708555832298</v>
       </c>
       <c r="F22">
-        <v>1.064006988446064</v>
+        <v>1.031287490306422</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.049162903520314</v>
+        <v>1.051425829115731</v>
       </c>
       <c r="J22">
-        <v>1.041775331037909</v>
+        <v>1.015183744501726</v>
       </c>
       <c r="K22">
-        <v>1.063509767827179</v>
+        <v>1.051213148512611</v>
       </c>
       <c r="L22">
-        <v>1.037832800855363</v>
+        <v>1.009405686320597</v>
       </c>
       <c r="M22">
-        <v>1.067611017991525</v>
+        <v>1.046263612972244</v>
       </c>
       <c r="N22">
-        <v>1.017707117436309</v>
+        <v>1.007960069347012</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.035349557557623</v>
+        <v>0.9860318008057165</v>
       </c>
       <c r="D23">
-        <v>1.06019865840997</v>
+        <v>1.038043718274066</v>
       </c>
       <c r="E23">
-        <v>1.034467592558305</v>
+        <v>0.9955726566501071</v>
       </c>
       <c r="F23">
-        <v>1.064371581329526</v>
+        <v>1.033249537672003</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04929960099977</v>
+        <v>1.052366246013797</v>
       </c>
       <c r="J23">
-        <v>1.042054816179979</v>
+        <v>1.016722554896073</v>
       </c>
       <c r="K23">
-        <v>1.063750115266187</v>
+        <v>1.052601146166093</v>
       </c>
       <c r="L23">
-        <v>1.038114239106698</v>
+        <v>1.010917474939952</v>
       </c>
       <c r="M23">
-        <v>1.067908079625915</v>
+        <v>1.047891641371939</v>
       </c>
       <c r="N23">
-        <v>1.017803584579756</v>
+        <v>1.008501450318215</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.036971072285649</v>
+        <v>0.9949167942787956</v>
       </c>
       <c r="D24">
-        <v>1.061411149823357</v>
+        <v>1.044627544695316</v>
       </c>
       <c r="E24">
-        <v>1.035851137656636</v>
+        <v>1.002729713667485</v>
       </c>
       <c r="F24">
-        <v>1.065807717570153</v>
+        <v>1.040784256583728</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.049834985625248</v>
+        <v>1.055949524591012</v>
       </c>
       <c r="J24">
-        <v>1.043154100559398</v>
+        <v>1.022611931981459</v>
       </c>
       <c r="K24">
-        <v>1.064694866154477</v>
+        <v>1.057913795261524</v>
       </c>
       <c r="L24">
-        <v>1.039221718649107</v>
+        <v>1.016709061456007</v>
       </c>
       <c r="M24">
-        <v>1.069076953057357</v>
+        <v>1.054131107465307</v>
       </c>
       <c r="N24">
-        <v>1.018182607349155</v>
+        <v>1.010572547819136</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.038853159843231</v>
+        <v>1.004756974894873</v>
       </c>
       <c r="D25">
-        <v>1.062818159019021</v>
+        <v>1.051946231887926</v>
       </c>
       <c r="E25">
-        <v>1.037458491714048</v>
+        <v>1.010690823619679</v>
       </c>
       <c r="F25">
-        <v>1.067475849021882</v>
+        <v>1.049167335219799</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050450507363125</v>
+        <v>1.059878703103511</v>
       </c>
       <c r="J25">
-        <v>1.044427645636857</v>
+        <v>1.029125301581028</v>
       </c>
       <c r="K25">
-        <v>1.065788130513794</v>
+        <v>1.063788325367679</v>
       </c>
       <c r="L25">
-        <v>1.040505817935361</v>
+        <v>1.023125414633786</v>
       </c>
       <c r="M25">
-        <v>1.070432048134732</v>
+        <v>1.061047493661484</v>
       </c>
       <c r="N25">
-        <v>1.018620866583206</v>
+        <v>1.012860749027929</v>
       </c>
     </row>
   </sheetData>
